--- a/teaching/traditional_assets/database/data/taiwan/taiwan_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/taiwan/taiwan_banks_regional.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0384</v>
+        <v>0.0505</v>
       </c>
       <c r="E2">
-        <v>0.041625</v>
+        <v>0.0345</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.009004505352277179</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007474726546758933</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>27.85</v>
+        <v>33.99</v>
       </c>
       <c r="L2">
-        <v>0.2062962962962963</v>
+        <v>0.2170498084291188</v>
       </c>
       <c r="M2">
-        <v>8.58</v>
+        <v>6.140000000000001</v>
       </c>
       <c r="N2">
-        <v>0.01813953488372093</v>
+        <v>0.01191076624636276</v>
       </c>
       <c r="O2">
-        <v>0.3080789946140036</v>
+        <v>0.1806413651073845</v>
       </c>
       <c r="P2">
-        <v>8.58</v>
+        <v>6.140000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.01813953488372093</v>
+        <v>0.01191076624636276</v>
       </c>
       <c r="R2">
-        <v>0.3080789946140036</v>
+        <v>0.1806413651073845</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>277.2</v>
+        <v>279.3</v>
       </c>
       <c r="V2">
-        <v>0.586046511627907</v>
+        <v>0.54180407371484</v>
       </c>
       <c r="W2">
-        <v>0.04001666025887479</v>
+        <v>0.04733683338802169</v>
       </c>
       <c r="X2">
-        <v>0.1063502238183581</v>
+        <v>0.1179053464609755</v>
       </c>
       <c r="Y2">
-        <v>-0.06633356355948333</v>
+        <v>-0.07056851307295378</v>
       </c>
       <c r="Z2">
-        <v>0.08727289884879429</v>
+        <v>0.09407665505226481</v>
       </c>
       <c r="AA2">
-        <v>0.0006703339781882422</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05055464022418067</v>
+        <v>0.04149570876818139</v>
       </c>
       <c r="AC2">
-        <v>-0.04988430624599243</v>
+        <v>-0.04149570876818139</v>
       </c>
       <c r="AD2">
-        <v>1274</v>
+        <v>1405.7</v>
       </c>
       <c r="AE2">
-        <v>11.4719588872129</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1285.471958887213</v>
+        <v>1405.7</v>
       </c>
       <c r="AG2">
-        <v>1008.271958887213</v>
+        <v>1126.4</v>
       </c>
       <c r="AH2">
-        <v>0.7310164671040184</v>
+        <v>0.7316781178430147</v>
       </c>
       <c r="AI2">
-        <v>0.6581121246523969</v>
+        <v>0.6548800372699743</v>
       </c>
       <c r="AJ2">
-        <v>0.6806798392677768</v>
+        <v>0.6860344722577502</v>
       </c>
       <c r="AK2">
-        <v>0.6015684192680072</v>
+        <v>0.6032562125107113</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>362.962962962963</v>
-      </c>
-      <c r="AP2">
-        <v>287.2569683439353</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0391</v>
+        <v>0.0421</v>
       </c>
       <c r="E3">
-        <v>0.0775</v>
+        <v>0.0449</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,34 +725,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.007490560201253912</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006358333216987455</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L3">
-        <v>0.2142161635832522</v>
+        <v>0.2290076335877863</v>
       </c>
       <c r="M3">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="N3">
-        <v>0.01188455008488964</v>
+        <v>0.009823427008206913</v>
       </c>
       <c r="O3">
-        <v>0.1909090909090909</v>
+        <v>0.1462962962962963</v>
       </c>
       <c r="P3">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="Q3">
-        <v>0.01188455008488964</v>
+        <v>0.009823427008206913</v>
       </c>
       <c r="R3">
-        <v>0.1909090909090909</v>
+        <v>0.1462962962962963</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,67 +761,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>201.1</v>
+        <v>222.2</v>
       </c>
       <c r="V3">
-        <v>0.5690435766836446</v>
+        <v>0.5525988560059686</v>
       </c>
       <c r="W3">
-        <v>0.0462962962962963</v>
+        <v>0.05484460694698354</v>
       </c>
       <c r="X3">
-        <v>0.103077573253277</v>
+        <v>0.0872168410126459</v>
       </c>
       <c r="Y3">
-        <v>-0.05678127695698073</v>
+        <v>-0.03237223406566236</v>
       </c>
       <c r="Z3">
-        <v>0.09894945952932088</v>
+        <v>0.09702905110690478</v>
       </c>
       <c r="AA3">
-        <v>0.0006291536353282369</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04760713049078971</v>
+        <v>0.04116001090918232</v>
       </c>
       <c r="AC3">
-        <v>-0.04697797685546148</v>
+        <v>-0.04116001090918232</v>
       </c>
       <c r="AD3">
-        <v>923.9</v>
+        <v>860.3</v>
       </c>
       <c r="AE3">
-        <v>9.403597336656116</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>933.3035973366561</v>
+        <v>860.3</v>
       </c>
       <c r="AG3">
-        <v>732.2035973366561</v>
+        <v>638.0999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.7253446708849641</v>
+        <v>0.6814797211660328</v>
       </c>
       <c r="AI3">
-        <v>0.654672588565485</v>
+        <v>0.6077711056163899</v>
       </c>
       <c r="AJ3">
-        <v>0.6744668119495857</v>
+        <v>0.6134397231301673</v>
       </c>
       <c r="AK3">
-        <v>0.5979595314617515</v>
+        <v>0.5347356071398642</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>348.6415094339623</v>
-      </c>
-      <c r="AP3">
-        <v>276.3032442779834</v>
       </c>
     </row>
     <row r="4">
@@ -847,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0377</v>
+        <v>0.05889999999999999</v>
       </c>
       <c r="E4">
-        <v>0.00575</v>
+        <v>0.0241</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -859,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0138181947333945</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01121171139949484</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>5.85</v>
+        <v>6.99</v>
       </c>
       <c r="L4">
-        <v>0.1811145510835913</v>
+        <v>0.1806201550387597</v>
       </c>
       <c r="M4">
-        <v>4.38</v>
+        <v>2.19</v>
       </c>
       <c r="N4">
-        <v>0.03662207357859532</v>
+        <v>0.01931216931216931</v>
       </c>
       <c r="O4">
-        <v>0.7487179487179487</v>
+        <v>0.3133047210300429</v>
       </c>
       <c r="P4">
-        <v>4.38</v>
+        <v>2.19</v>
       </c>
       <c r="Q4">
-        <v>0.03662207357859532</v>
+        <v>0.01931216931216931</v>
       </c>
       <c r="R4">
-        <v>0.7487179487179487</v>
+        <v>0.3133047210300429</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -895,67 +883,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>76.09999999999999</v>
+        <v>57.1</v>
       </c>
       <c r="V4">
-        <v>0.6362876254180602</v>
+        <v>0.5035273368606702</v>
       </c>
       <c r="W4">
-        <v>0.03373702422145328</v>
+        <v>0.03982905982905983</v>
       </c>
       <c r="X4">
-        <v>0.1096228743834392</v>
+        <v>0.148593851909305</v>
       </c>
       <c r="Y4">
-        <v>-0.07588585016198593</v>
+        <v>-0.1087647920802452</v>
       </c>
       <c r="Z4">
-        <v>0.06346170497042099</v>
+        <v>0.08609566184649611</v>
       </c>
       <c r="AA4">
-        <v>0.0007115143210482476</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05350214995757163</v>
+        <v>0.04183140662718045</v>
       </c>
       <c r="AC4">
-        <v>-0.05279063563652339</v>
+        <v>-0.04183140662718045</v>
       </c>
       <c r="AD4">
-        <v>350.1</v>
+        <v>545.4</v>
       </c>
       <c r="AE4">
-        <v>2.068361550556788</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>352.1683615505568</v>
+        <v>545.4</v>
       </c>
       <c r="AG4">
-        <v>276.0683615505568</v>
+        <v>488.3</v>
       </c>
       <c r="AH4">
-        <v>0.7464857549859601</v>
+        <v>0.8278688524590164</v>
       </c>
       <c r="AI4">
-        <v>0.667404732236945</v>
+        <v>0.7461012311901505</v>
       </c>
       <c r="AJ4">
-        <v>0.6977266528683062</v>
+        <v>0.8115339870367293</v>
       </c>
       <c r="AK4">
-        <v>0.6113545258188968</v>
+        <v>0.7245882178364742</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>407.093023255814</v>
-      </c>
-      <c r="AP4">
-        <v>321.0097227332056</v>
       </c>
     </row>
   </sheetData>
